--- a/tmp/LEBDEF25/LEBDEF25.docx-total-recap.xlsx
+++ b/tmp/LEBDEF25/LEBDEF25.docx-total-recap.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
